--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf18-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf18-Fgfr1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.638861</v>
+        <v>0.438971</v>
       </c>
       <c r="H2">
-        <v>1.277722</v>
+        <v>0.877942</v>
       </c>
       <c r="I2">
-        <v>0.1058208177499626</v>
+        <v>0.08625018088683029</v>
       </c>
       <c r="J2">
-        <v>0.07631084478658147</v>
+        <v>0.06166296044045714</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N2">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O2">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P2">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q2">
-        <v>6.437900042732999</v>
+        <v>4.566211020709</v>
       </c>
       <c r="R2">
-        <v>25.751600170932</v>
+        <v>18.264844082836</v>
       </c>
       <c r="S2">
-        <v>0.009060353323287791</v>
+        <v>0.01012933769696039</v>
       </c>
       <c r="T2">
-        <v>0.005120111803531699</v>
+        <v>0.005464659060096734</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.638861</v>
+        <v>0.438971</v>
       </c>
       <c r="H3">
-        <v>1.277722</v>
+        <v>0.877942</v>
       </c>
       <c r="I3">
-        <v>0.1058208177499626</v>
+        <v>0.08625018088683029</v>
       </c>
       <c r="J3">
-        <v>0.07631084478658147</v>
+        <v>0.06166296044045714</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>168.501376</v>
       </c>
       <c r="O3">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P3">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q3">
-        <v>35.88298585757867</v>
+        <v>24.65573917469867</v>
       </c>
       <c r="R3">
-        <v>215.297915145472</v>
+        <v>147.934435048192</v>
       </c>
       <c r="S3">
-        <v>0.05049977912148287</v>
+        <v>0.05469442983165498</v>
       </c>
       <c r="T3">
-        <v>0.04280702516717435</v>
+        <v>0.04426050652937583</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.638861</v>
+        <v>0.438971</v>
       </c>
       <c r="H4">
-        <v>1.277722</v>
+        <v>0.877942</v>
       </c>
       <c r="I4">
-        <v>0.1058208177499626</v>
+        <v>0.08625018088683029</v>
       </c>
       <c r="J4">
-        <v>0.07631084478658147</v>
+        <v>0.06166296044045714</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N4">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O4">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P4">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q4">
-        <v>0.588206350171</v>
+        <v>0.1277205146576667</v>
       </c>
       <c r="R4">
-        <v>3.529238101026</v>
+        <v>0.7663230879459999</v>
       </c>
       <c r="S4">
-        <v>0.0008278098951794842</v>
+        <v>0.0002833255445115645</v>
       </c>
       <c r="T4">
-        <v>0.0007017076041330535</v>
+        <v>0.0002292762197428617</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.638861</v>
+        <v>0.438971</v>
       </c>
       <c r="H5">
-        <v>1.277722</v>
+        <v>0.877942</v>
       </c>
       <c r="I5">
-        <v>0.1058208177499626</v>
+        <v>0.08625018088683029</v>
       </c>
       <c r="J5">
-        <v>0.07631084478658147</v>
+        <v>0.06166296044045714</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N5">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O5">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P5">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q5">
-        <v>27.2346773313415</v>
+        <v>9.026293339660999</v>
       </c>
       <c r="R5">
-        <v>108.938709325366</v>
+        <v>36.105173358644</v>
       </c>
       <c r="S5">
-        <v>0.03832861610615167</v>
+        <v>0.0200232474965763</v>
       </c>
       <c r="T5">
-        <v>0.02165994997498939</v>
+        <v>0.01080230752673591</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.638861</v>
+        <v>0.438971</v>
       </c>
       <c r="H6">
-        <v>1.277722</v>
+        <v>0.877942</v>
       </c>
       <c r="I6">
-        <v>0.1058208177499626</v>
+        <v>0.08625018088683029</v>
       </c>
       <c r="J6">
-        <v>0.07631084478658147</v>
+        <v>0.06166296044045714</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N6">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O6">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P6">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q6">
-        <v>4.127247347334666</v>
+        <v>0.2520341753843334</v>
       </c>
       <c r="R6">
-        <v>24.763484084008</v>
+        <v>1.512205052306</v>
       </c>
       <c r="S6">
-        <v>0.005808465333608974</v>
+        <v>0.0005590935815415854</v>
       </c>
       <c r="T6">
-        <v>0.004923647707850766</v>
+        <v>0.0004524366593183054</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.638861</v>
+        <v>0.438971</v>
       </c>
       <c r="H7">
-        <v>1.277722</v>
+        <v>0.877942</v>
       </c>
       <c r="I7">
-        <v>0.1058208177499626</v>
+        <v>0.08625018088683029</v>
       </c>
       <c r="J7">
-        <v>0.07631084478658147</v>
+        <v>0.06166296044045714</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N7">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O7">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P7">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q7">
-        <v>0.9207358431613333</v>
+        <v>0.2527794018186666</v>
       </c>
       <c r="R7">
-        <v>5.524415058968</v>
+        <v>1.516676410912</v>
       </c>
       <c r="S7">
-        <v>0.00129579397025176</v>
+        <v>0.0005607467355854585</v>
       </c>
       <c r="T7">
-        <v>0.001098402528902211</v>
+        <v>0.0004537744451875087</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>10.547429</v>
       </c>
       <c r="I8">
-        <v>0.5823580622074128</v>
+        <v>0.6907955644306037</v>
       </c>
       <c r="J8">
-        <v>0.6299361029367015</v>
+        <v>0.7408071343841968</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N8">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O8">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P8">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q8">
-        <v>35.429351929879</v>
+        <v>36.57172990163034</v>
       </c>
       <c r="R8">
-        <v>212.576111579274</v>
+        <v>219.430379409782</v>
       </c>
       <c r="S8">
-        <v>0.04986135919617988</v>
+        <v>0.08112796378782289</v>
       </c>
       <c r="T8">
-        <v>0.04226585729901539</v>
+        <v>0.06565137952800645</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>10.547429</v>
       </c>
       <c r="I9">
-        <v>0.5823580622074128</v>
+        <v>0.6907955644306037</v>
       </c>
       <c r="J9">
-        <v>0.6299361029367015</v>
+        <v>0.7408071343841968</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>168.501376</v>
       </c>
       <c r="O9">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P9">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q9">
         <v>197.4729221958116</v>
@@ -1013,10 +1013,10 @@
         <v>1777.256299762304</v>
       </c>
       <c r="S9">
-        <v>0.2779127409559216</v>
+        <v>0.438059017827953</v>
       </c>
       <c r="T9">
-        <v>0.3533664276360465</v>
+        <v>0.5317373472537229</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>10.547429</v>
       </c>
       <c r="I10">
-        <v>0.5823580622074128</v>
+        <v>0.6907955644306037</v>
       </c>
       <c r="J10">
-        <v>0.6299361029367015</v>
+        <v>0.7408071343841968</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N10">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O10">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P10">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q10">
-        <v>3.237044634006334</v>
+        <v>1.022940057691889</v>
       </c>
       <c r="R10">
-        <v>29.133401706057</v>
+        <v>9.206460519227001</v>
       </c>
       <c r="S10">
-        <v>0.004555642043628193</v>
+        <v>0.002269212973538925</v>
       </c>
       <c r="T10">
-        <v>0.005792505046757815</v>
+        <v>0.002754481103679096</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>10.547429</v>
       </c>
       <c r="I11">
-        <v>0.5823580622074128</v>
+        <v>0.6907955644306037</v>
       </c>
       <c r="J11">
-        <v>0.6299361029367015</v>
+        <v>0.7408071343841968</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N11">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O11">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P11">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q11">
-        <v>149.8791471541979</v>
+        <v>72.29345304757967</v>
       </c>
       <c r="R11">
-        <v>899.2748829251871</v>
+        <v>433.760718285478</v>
       </c>
       <c r="S11">
-        <v>0.2109318287013353</v>
+        <v>0.1603703367797009</v>
       </c>
       <c r="T11">
-        <v>0.1788000711459553</v>
+        <v>0.1297768778283903</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>10.547429</v>
       </c>
       <c r="I12">
-        <v>0.5823580622074128</v>
+        <v>0.6907955644306037</v>
       </c>
       <c r="J12">
-        <v>0.6299361029367015</v>
+        <v>0.7408071343841968</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N12">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O12">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P12">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q12">
-        <v>22.71326019350622</v>
+        <v>2.018593916560778</v>
       </c>
       <c r="R12">
-        <v>204.419341741556</v>
+        <v>18.167345249047</v>
       </c>
       <c r="S12">
-        <v>0.03196541746702437</v>
+        <v>0.004477896304209605</v>
       </c>
       <c r="T12">
-        <v>0.04064407173044582</v>
+        <v>0.005435488382099291</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>10.547429</v>
       </c>
       <c r="I13">
-        <v>0.5823580622074128</v>
+        <v>0.6907955644306037</v>
       </c>
       <c r="J13">
-        <v>0.6299361029367015</v>
+        <v>0.7408071343841968</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N13">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O13">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P13">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q13">
-        <v>5.067036456808444</v>
+        <v>2.024562589438223</v>
       </c>
       <c r="R13">
-        <v>45.603328111276</v>
+        <v>18.221063304944</v>
       </c>
       <c r="S13">
-        <v>0.007131073843323538</v>
+        <v>0.004491136757378353</v>
       </c>
       <c r="T13">
-        <v>0.009067170078480704</v>
+        <v>0.005451560288298817</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3944533333333333</v>
+        <v>0.242074</v>
       </c>
       <c r="H14">
-        <v>1.18336</v>
+        <v>0.7262219999999999</v>
       </c>
       <c r="I14">
-        <v>0.06533717709725886</v>
+        <v>0.04756333855311297</v>
       </c>
       <c r="J14">
-        <v>0.0706751556963479</v>
+        <v>0.05100678456776149</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N14">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O14">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P14">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q14">
-        <v>3.974966591359999</v>
+        <v>2.518072871846</v>
       </c>
       <c r="R14">
-        <v>23.84979954816</v>
+        <v>15.108437231076</v>
       </c>
       <c r="S14">
-        <v>0.005594153610172813</v>
+        <v>0.005585902698934527</v>
       </c>
       <c r="T14">
-        <v>0.004741982609540472</v>
+        <v>0.004520293632086823</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3944533333333333</v>
+        <v>0.242074</v>
       </c>
       <c r="H15">
-        <v>1.18336</v>
+        <v>0.7262219999999999</v>
       </c>
       <c r="I15">
-        <v>0.06533717709725886</v>
+        <v>0.04756333855311297</v>
       </c>
       <c r="J15">
-        <v>0.0706751556963479</v>
+        <v>0.05100678456776149</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>168.501376</v>
       </c>
       <c r="O15">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P15">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q15">
-        <v>22.15530981148444</v>
+        <v>13.59660069794133</v>
       </c>
       <c r="R15">
-        <v>199.39778830336</v>
+        <v>122.369406281472</v>
       </c>
       <c r="S15">
-        <v>0.03118018818970949</v>
+        <v>0.03016167219945748</v>
       </c>
       <c r="T15">
-        <v>0.03964565163770165</v>
+        <v>0.03661170507023968</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3944533333333333</v>
+        <v>0.242074</v>
       </c>
       <c r="H16">
-        <v>1.18336</v>
+        <v>0.7262219999999999</v>
       </c>
       <c r="I16">
-        <v>0.06533717709725886</v>
+        <v>0.04756333855311297</v>
       </c>
       <c r="J16">
-        <v>0.0706751556963479</v>
+        <v>0.05100678456776149</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N16">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O16">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P16">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q16">
-        <v>0.3631775229866666</v>
+        <v>0.07043247928733333</v>
       </c>
       <c r="R16">
-        <v>3.26859770688</v>
+        <v>0.6338923135859998</v>
       </c>
       <c r="S16">
-        <v>0.0005111164596365482</v>
+        <v>0.0001562420931270914</v>
       </c>
       <c r="T16">
-        <v>0.0006498852727172969</v>
+        <v>0.0001896542537594744</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.3944533333333333</v>
+        <v>0.242074</v>
       </c>
       <c r="H17">
-        <v>1.18336</v>
+        <v>0.7262219999999999</v>
       </c>
       <c r="I17">
-        <v>0.06533717709725886</v>
+        <v>0.04756333855311297</v>
       </c>
       <c r="J17">
-        <v>0.0706751556963479</v>
+        <v>0.05100678456776149</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N17">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O17">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P17">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q17">
-        <v>16.81556591434667</v>
+        <v>4.977620238934</v>
       </c>
       <c r="R17">
-        <v>100.89339548608</v>
+        <v>29.86572143360399</v>
       </c>
       <c r="S17">
-        <v>0.02366532060201705</v>
+        <v>0.01104197683784626</v>
       </c>
       <c r="T17">
-        <v>0.02006032486127924</v>
+        <v>0.008935525782661272</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.3944533333333333</v>
+        <v>0.242074</v>
       </c>
       <c r="H18">
-        <v>1.18336</v>
+        <v>0.7262219999999999</v>
       </c>
       <c r="I18">
-        <v>0.06533717709725886</v>
+        <v>0.04756333855311297</v>
       </c>
       <c r="J18">
-        <v>0.0706751556963479</v>
+        <v>0.05100678456776149</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N18">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O18">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P18">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q18">
-        <v>2.548295284337778</v>
+        <v>0.1389862222606667</v>
       </c>
       <c r="R18">
-        <v>22.93465755904</v>
+        <v>1.250876000346</v>
       </c>
       <c r="S18">
-        <v>0.00358633335325395</v>
+        <v>0.0003083165394937199</v>
       </c>
       <c r="T18">
-        <v>0.004560027730259228</v>
+        <v>0.0003742496151265783</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.3944533333333333</v>
+        <v>0.242074</v>
       </c>
       <c r="H19">
-        <v>1.18336</v>
+        <v>0.7262219999999999</v>
       </c>
       <c r="I19">
-        <v>0.06533717709725886</v>
+        <v>0.04756333855311297</v>
       </c>
       <c r="J19">
-        <v>0.0706751556963479</v>
+        <v>0.05100678456776149</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N19">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O19">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P19">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q19">
-        <v>0.5684919293155555</v>
+        <v>0.1393971832213333</v>
       </c>
       <c r="R19">
-        <v>5.11642736384</v>
+        <v>1.254574648992</v>
       </c>
       <c r="S19">
-        <v>0.0008000648824690207</v>
+        <v>0.0003092281842538899</v>
       </c>
       <c r="T19">
-        <v>0.001017283584850007</v>
+        <v>0.0003753562138876633</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7290775</v>
+        <v>0.5918005</v>
       </c>
       <c r="H20">
-        <v>1.458155</v>
+        <v>1.183601</v>
       </c>
       <c r="I20">
-        <v>0.1207642621056823</v>
+        <v>0.1162785244900383</v>
       </c>
       <c r="J20">
-        <v>0.08708705014062347</v>
+        <v>0.08313116543038777</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N20">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O20">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P20">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q20">
-        <v>7.3470255163575</v>
+        <v>6.1559555532395</v>
       </c>
       <c r="R20">
-        <v>29.38810206543</v>
+        <v>24.623822212958</v>
       </c>
       <c r="S20">
-        <v>0.01033980748560227</v>
+        <v>0.0136559069135091</v>
       </c>
       <c r="T20">
-        <v>0.005843146339249668</v>
+        <v>0.007367201851818861</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7290775</v>
+        <v>0.5918005</v>
       </c>
       <c r="H21">
-        <v>1.458155</v>
+        <v>1.183601</v>
       </c>
       <c r="I21">
-        <v>0.1207642621056823</v>
+        <v>0.1162785244900383</v>
       </c>
       <c r="J21">
-        <v>0.08708705014062347</v>
+        <v>0.08313116543038777</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>168.501376</v>
       </c>
       <c r="O21">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P21">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q21">
-        <v>40.95018732021333</v>
+        <v>33.23973285582933</v>
       </c>
       <c r="R21">
-        <v>245.70112392128</v>
+        <v>199.438397134976</v>
       </c>
       <c r="S21">
-        <v>0.05763108518510746</v>
+        <v>0.07373651316735806</v>
       </c>
       <c r="T21">
-        <v>0.04885200206511363</v>
+        <v>0.05966997795831131</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.7290775</v>
+        <v>0.5918005</v>
       </c>
       <c r="H22">
-        <v>1.458155</v>
+        <v>1.183601</v>
       </c>
       <c r="I22">
-        <v>0.1207642621056823</v>
+        <v>0.1162785244900383</v>
       </c>
       <c r="J22">
-        <v>0.08708705014062347</v>
+        <v>0.08313116543038777</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N22">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O22">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P22">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q22">
-        <v>0.6712696741025</v>
+        <v>0.1721869199438333</v>
       </c>
       <c r="R22">
-        <v>4.027618044615</v>
+        <v>1.033121519663</v>
       </c>
       <c r="S22">
-        <v>0.0009447087376639369</v>
+        <v>0.0003819664599819034</v>
       </c>
       <c r="T22">
-        <v>0.0008007989621409293</v>
+        <v>0.0003090996477715736</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.7290775</v>
+        <v>0.5918005</v>
       </c>
       <c r="H23">
-        <v>1.458155</v>
+        <v>1.183601</v>
       </c>
       <c r="I23">
-        <v>0.1207642621056823</v>
+        <v>0.1162785244900383</v>
       </c>
       <c r="J23">
-        <v>0.08708705014062347</v>
+        <v>0.08313116543038777</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N23">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O23">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P23">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q23">
-        <v>31.08061137249125</v>
+        <v>12.1688332749955</v>
       </c>
       <c r="R23">
-        <v>124.322445489965</v>
+        <v>48.67533309998199</v>
       </c>
       <c r="S23">
-        <v>0.04374117626390216</v>
+        <v>0.02699442077061492</v>
       </c>
       <c r="T23">
-        <v>0.0247186511273819</v>
+        <v>0.01456317386678408</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.7290775</v>
+        <v>0.5918005</v>
       </c>
       <c r="H24">
-        <v>1.458155</v>
+        <v>1.183601</v>
       </c>
       <c r="I24">
-        <v>0.1207642621056823</v>
+        <v>0.1162785244900383</v>
       </c>
       <c r="J24">
-        <v>0.08708705014062347</v>
+        <v>0.08313116543038777</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N24">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O24">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P24">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q24">
-        <v>4.710074926903333</v>
+        <v>0.3397808762071667</v>
       </c>
       <c r="R24">
-        <v>28.26044956142</v>
+        <v>2.038685257243</v>
       </c>
       <c r="S24">
-        <v>0.00662870543712059</v>
+        <v>0.0007537442361866751</v>
       </c>
       <c r="T24">
-        <v>0.005618938645058262</v>
+        <v>0.0006099542821801503</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.7290775</v>
+        <v>0.5918005</v>
       </c>
       <c r="H25">
-        <v>1.458155</v>
+        <v>1.183601</v>
       </c>
       <c r="I25">
-        <v>0.1207642621056823</v>
+        <v>0.1162785244900383</v>
       </c>
       <c r="J25">
-        <v>0.08708705014062347</v>
+        <v>0.08313116543038777</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N25">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O25">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P25">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q25">
-        <v>1.050757186136667</v>
+        <v>0.3407855561893333</v>
       </c>
       <c r="R25">
-        <v>6.304543116820001</v>
+        <v>2.044713337136</v>
       </c>
       <c r="S25">
-        <v>0.001478778996285934</v>
+        <v>0.0007559729423876342</v>
       </c>
       <c r="T25">
-        <v>0.001253513001679085</v>
+        <v>0.0006117578235218049</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.3415759999999999</v>
+        <v>0.1678953333333333</v>
       </c>
       <c r="H26">
-        <v>1.024728</v>
+        <v>0.503686</v>
       </c>
       <c r="I26">
-        <v>0.05657858539457128</v>
+        <v>0.03298851830771204</v>
       </c>
       <c r="J26">
-        <v>0.06120099627028731</v>
+        <v>0.03537679014378181</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N26">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O26">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P26">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q26">
-        <v>3.442113613127999</v>
+        <v>1.746460521064667</v>
       </c>
       <c r="R26">
-        <v>20.65268167876799</v>
+        <v>10.478763126388</v>
       </c>
       <c r="S26">
-        <v>0.004844245065445144</v>
+        <v>0.003874216130626084</v>
       </c>
       <c r="T26">
-        <v>0.004106309454020068</v>
+        <v>0.003135141345719744</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.3415759999999999</v>
+        <v>0.1678953333333333</v>
       </c>
       <c r="H27">
-        <v>1.024728</v>
+        <v>0.503686</v>
       </c>
       <c r="I27">
-        <v>0.05657858539457128</v>
+        <v>0.03298851830771204</v>
       </c>
       <c r="J27">
-        <v>0.06120099627028731</v>
+        <v>0.03537679014378181</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>168.501376</v>
       </c>
       <c r="O27">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P27">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q27">
-        <v>19.18534200285866</v>
+        <v>9.43019823021511</v>
       </c>
       <c r="R27">
-        <v>172.668078025728</v>
+        <v>84.87178407193599</v>
       </c>
       <c r="S27">
-        <v>0.02700041566663113</v>
+        <v>0.02091923960366932</v>
       </c>
       <c r="T27">
-        <v>0.0343310651968959</v>
+        <v>0.02539279074444005</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.3415759999999999</v>
+        <v>0.1678953333333333</v>
       </c>
       <c r="H28">
-        <v>1.024728</v>
+        <v>0.503686</v>
       </c>
       <c r="I28">
-        <v>0.05657858539457128</v>
+        <v>0.03298851830771204</v>
       </c>
       <c r="J28">
-        <v>0.06120099627028731</v>
+        <v>0.03537679014378181</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N28">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O28">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P28">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q28">
-        <v>0.3144927805359999</v>
+        <v>0.04884987477977777</v>
       </c>
       <c r="R28">
-        <v>2.830435024824</v>
+        <v>0.4396488730179999</v>
       </c>
       <c r="S28">
-        <v>0.0004426001786864864</v>
+        <v>0.0001083648731638702</v>
       </c>
       <c r="T28">
-        <v>0.0005627667284182753</v>
+        <v>0.0001315385549585315</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.3415759999999999</v>
+        <v>0.1678953333333333</v>
       </c>
       <c r="H29">
-        <v>1.024728</v>
+        <v>0.503686</v>
       </c>
       <c r="I29">
-        <v>0.05657858539457128</v>
+        <v>0.03298851830771204</v>
       </c>
       <c r="J29">
-        <v>0.06120099627028731</v>
+        <v>0.03537679014378181</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N29">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O29">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P29">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q29">
-        <v>14.561402471164</v>
+        <v>3.452329491075333</v>
       </c>
       <c r="R29">
-        <v>87.36841482698399</v>
+        <v>20.713976946452</v>
       </c>
       <c r="S29">
-        <v>0.02049293253943324</v>
+        <v>0.007658387029789005</v>
       </c>
       <c r="T29">
-        <v>0.01737119437402731</v>
+        <v>0.006197415169694014</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.3415759999999999</v>
+        <v>0.1678953333333333</v>
       </c>
       <c r="H30">
-        <v>1.024728</v>
+        <v>0.503686</v>
       </c>
       <c r="I30">
-        <v>0.05657858539457128</v>
+        <v>0.03298851830771204</v>
       </c>
       <c r="J30">
-        <v>0.06120099627028731</v>
+        <v>0.03537679014378181</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N30">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O30">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P30">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q30">
-        <v>2.206690719754666</v>
+        <v>0.09639671387755555</v>
       </c>
       <c r="R30">
-        <v>19.860216477792</v>
+        <v>0.8675704248980001</v>
       </c>
       <c r="S30">
-        <v>0.003105577511841885</v>
+        <v>0.0002138391903735136</v>
       </c>
       <c r="T30">
-        <v>0.003948746024855562</v>
+        <v>0.0002595684124753116</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.3415759999999999</v>
+        <v>0.1678953333333333</v>
       </c>
       <c r="H31">
-        <v>1.024728</v>
+        <v>0.503686</v>
       </c>
       <c r="I31">
-        <v>0.05657858539457128</v>
+        <v>0.03298851830771204</v>
       </c>
       <c r="J31">
-        <v>0.06120099627028731</v>
+        <v>0.03537679014378181</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N31">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O31">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P31">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q31">
-        <v>0.4922843409813332</v>
+        <v>0.09668174418844443</v>
       </c>
       <c r="R31">
-        <v>4.430559068831999</v>
+        <v>0.870135697696</v>
       </c>
       <c r="S31">
-        <v>0.0006928144325333917</v>
+        <v>0.0002144714800902544</v>
       </c>
       <c r="T31">
-        <v>0.0008809144920701882</v>
+        <v>0.0002603359164941596</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.4174183333333333</v>
+        <v>0.1329576666666667</v>
       </c>
       <c r="H32">
-        <v>1.252255</v>
+        <v>0.398873</v>
       </c>
       <c r="I32">
-        <v>0.06914109544511213</v>
+        <v>0.02612387333170275</v>
       </c>
       <c r="J32">
-        <v>0.07478985016945827</v>
+        <v>0.02801516503341503</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N32">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O32">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P32">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q32">
-        <v>4.206388410004999</v>
+        <v>1.383036152322333</v>
       </c>
       <c r="R32">
-        <v>25.23833046003</v>
+        <v>8.298216913934001</v>
       </c>
       <c r="S32">
-        <v>0.005919844197122562</v>
+        <v>0.003068022956109994</v>
       </c>
       <c r="T32">
-        <v>0.005018059958685525</v>
+        <v>0.002482743681562068</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.4174183333333333</v>
+        <v>0.1329576666666667</v>
       </c>
       <c r="H33">
-        <v>1.252255</v>
+        <v>0.398873</v>
       </c>
       <c r="I33">
-        <v>0.06914109544511213</v>
+        <v>0.02612387333170275</v>
       </c>
       <c r="J33">
-        <v>0.07478985016945827</v>
+        <v>0.02801516503341503</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>168.501376</v>
       </c>
       <c r="O33">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P33">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q33">
-        <v>23.44518784476444</v>
+        <v>7.467849927694222</v>
       </c>
       <c r="R33">
-        <v>211.00669060288</v>
+        <v>67.210649349248</v>
       </c>
       <c r="S33">
-        <v>0.03299549297044403</v>
+        <v>0.01656611432208636</v>
       </c>
       <c r="T33">
-        <v>0.04195381413227596</v>
+        <v>0.02010875549967051</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.4174183333333333</v>
+        <v>0.1329576666666667</v>
       </c>
       <c r="H34">
-        <v>1.252255</v>
+        <v>0.398873</v>
       </c>
       <c r="I34">
-        <v>0.06914109544511213</v>
+        <v>0.02612387333170275</v>
       </c>
       <c r="J34">
-        <v>0.07478985016945827</v>
+        <v>0.02801516503341503</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N34">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O34">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P34">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q34">
-        <v>0.3843216511016666</v>
+        <v>0.03868460926655555</v>
       </c>
       <c r="R34">
-        <v>3.458894859915</v>
+        <v>0.348161483399</v>
       </c>
       <c r="S34">
-        <v>0.0005408735652397965</v>
+        <v>8.581501581043036E-05</v>
       </c>
       <c r="T34">
-        <v>0.0006877214729132289</v>
+        <v>0.000104166441060451</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.4174183333333333</v>
+        <v>0.1329576666666667</v>
       </c>
       <c r="H35">
-        <v>1.252255</v>
+        <v>0.398873</v>
       </c>
       <c r="I35">
-        <v>0.06914109544511213</v>
+        <v>0.02612387333170275</v>
       </c>
       <c r="J35">
-        <v>0.07478985016945827</v>
+        <v>0.02801516503341503</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N35">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O35">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P35">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q35">
-        <v>17.79456504704417</v>
+        <v>2.733927528447667</v>
       </c>
       <c r="R35">
-        <v>106.767390282265</v>
+        <v>16.403565170686</v>
       </c>
       <c r="S35">
-        <v>0.02504311118381461</v>
+        <v>0.006064738368215576</v>
       </c>
       <c r="T35">
-        <v>0.02122823325882339</v>
+        <v>0.004907782985791466</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.4174183333333333</v>
+        <v>0.1329576666666667</v>
       </c>
       <c r="H36">
-        <v>1.252255</v>
+        <v>0.398873</v>
       </c>
       <c r="I36">
-        <v>0.06914109544511213</v>
+        <v>0.02612387333170275</v>
       </c>
       <c r="J36">
-        <v>0.07478985016945827</v>
+        <v>0.02801516503341503</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N36">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O36">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P36">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q36">
-        <v>2.696656563757777</v>
+        <v>0.07633733408211112</v>
       </c>
       <c r="R36">
-        <v>24.26990907382</v>
+        <v>0.6870360067390001</v>
       </c>
       <c r="S36">
-        <v>0.003795129016764995</v>
+        <v>0.0001693409770806703</v>
       </c>
       <c r="T36">
-        <v>0.004825511700036987</v>
+        <v>0.0002055543163583362</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.4174183333333333</v>
+        <v>0.1329576666666667</v>
       </c>
       <c r="H37">
-        <v>1.252255</v>
+        <v>0.398873</v>
       </c>
       <c r="I37">
-        <v>0.06914109544511213</v>
+        <v>0.02612387333170275</v>
       </c>
       <c r="J37">
-        <v>0.07478985016945827</v>
+        <v>0.02801516503341503</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N37">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O37">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P37">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q37">
-        <v>0.6015894241355554</v>
+        <v>0.07656305188088888</v>
       </c>
       <c r="R37">
-        <v>5.41430481722</v>
+        <v>0.689067466928</v>
       </c>
       <c r="S37">
-        <v>0.0008466445117261386</v>
+        <v>0.0001698416923997095</v>
       </c>
       <c r="T37">
-        <v>0.001076509646723183</v>
+        <v>0.0002061621089722068</v>
       </c>
     </row>
   </sheetData>
